--- a/3_Auxiliary_scripts/rearrange_data_template.xlsx
+++ b/3_Auxiliary_scripts/rearrange_data_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/sebastian_sterl_vub_be/Documents/Documenten/VUB Work Files/REVUB code repo/data/auxiliary scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/sebastian_sterl_vub_be/Documents/Documenten/VUB Work Files/23006 REVUB tutorial/Training dataset/sheets to be provided/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{1FE34037-6CD7-4854-90B7-96CD817059A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A14019-4BE3-4647-B860-CD01E332C662}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{1FE34037-6CD7-4854-90B7-96CD817059A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFECA52F-6A63-4D63-901D-33D0483E5501}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F0237BE4-5998-4954-96A9-CCA6E6B1B117}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="monthly_series" sheetId="3" r:id="rId1"/>
     <sheet name="daily_bymonth_series" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="610">
+  <si>
+    <t>data series name</t>
+  </si>
+  <si>
+    <t>activate for conversion (1 = yes, 0 = no)</t>
+  </si>
   <si>
     <t>first_year</t>
   </si>
@@ -657,21 +663,6 @@
     <t>month 204</t>
   </si>
   <si>
-    <t>data series name</t>
-  </si>
-  <si>
-    <t>series 1 (e.g. inflow)</t>
-  </si>
-  <si>
-    <t>series 2 (e.g. evaporation)</t>
-  </si>
-  <si>
-    <t>series 3 (e.g. precipitation)</t>
-  </si>
-  <si>
-    <t>activate for conversion (1 = yes, 0 = no)</t>
-  </si>
-  <si>
     <t>Jan 0h</t>
   </si>
   <si>
@@ -1536,19 +1527,346 @@
     <t>Dec 23h</t>
   </si>
   <si>
-    <t>series A (e.g. irrigation needs downstream of plant A)</t>
-  </si>
-  <si>
-    <t>series B (e.g. irrigation needs downstream of plant B)</t>
+    <t>month 205</t>
+  </si>
+  <si>
+    <t>month 206</t>
+  </si>
+  <si>
+    <t>month 207</t>
+  </si>
+  <si>
+    <t>month 208</t>
+  </si>
+  <si>
+    <t>month 209</t>
+  </si>
+  <si>
+    <t>month 210</t>
+  </si>
+  <si>
+    <t>month 211</t>
+  </si>
+  <si>
+    <t>month 212</t>
+  </si>
+  <si>
+    <t>month 213</t>
+  </si>
+  <si>
+    <t>month 214</t>
+  </si>
+  <si>
+    <t>month 215</t>
+  </si>
+  <si>
+    <t>month 216</t>
+  </si>
+  <si>
+    <t>month 217</t>
+  </si>
+  <si>
+    <t>month 218</t>
+  </si>
+  <si>
+    <t>month 219</t>
+  </si>
+  <si>
+    <t>month 220</t>
+  </si>
+  <si>
+    <t>month 221</t>
+  </si>
+  <si>
+    <t>month 222</t>
+  </si>
+  <si>
+    <t>month 223</t>
+  </si>
+  <si>
+    <t>month 224</t>
+  </si>
+  <si>
+    <t>month 225</t>
+  </si>
+  <si>
+    <t>month 226</t>
+  </si>
+  <si>
+    <t>month 227</t>
+  </si>
+  <si>
+    <t>month 228</t>
+  </si>
+  <si>
+    <t>month 229</t>
+  </si>
+  <si>
+    <t>month 230</t>
+  </si>
+  <si>
+    <t>month 231</t>
+  </si>
+  <si>
+    <t>month 232</t>
+  </si>
+  <si>
+    <t>month 233</t>
+  </si>
+  <si>
+    <t>month 234</t>
+  </si>
+  <si>
+    <t>month 235</t>
+  </si>
+  <si>
+    <t>month 236</t>
+  </si>
+  <si>
+    <t>month 237</t>
+  </si>
+  <si>
+    <t>month 238</t>
+  </si>
+  <si>
+    <t>month 239</t>
+  </si>
+  <si>
+    <t>month 240</t>
+  </si>
+  <si>
+    <t>month 241</t>
+  </si>
+  <si>
+    <t>month 242</t>
+  </si>
+  <si>
+    <t>month 243</t>
+  </si>
+  <si>
+    <t>month 244</t>
+  </si>
+  <si>
+    <t>month 245</t>
+  </si>
+  <si>
+    <t>month 246</t>
+  </si>
+  <si>
+    <t>month 247</t>
+  </si>
+  <si>
+    <t>month 248</t>
+  </si>
+  <si>
+    <t>month 249</t>
+  </si>
+  <si>
+    <t>month 250</t>
+  </si>
+  <si>
+    <t>month 251</t>
+  </si>
+  <si>
+    <t>month 252</t>
+  </si>
+  <si>
+    <t>month 253</t>
+  </si>
+  <si>
+    <t>month 254</t>
+  </si>
+  <si>
+    <t>month 255</t>
+  </si>
+  <si>
+    <t>month 256</t>
+  </si>
+  <si>
+    <t>month 257</t>
+  </si>
+  <si>
+    <t>month 258</t>
+  </si>
+  <si>
+    <t>month 259</t>
+  </si>
+  <si>
+    <t>month 260</t>
+  </si>
+  <si>
+    <t>month 261</t>
+  </si>
+  <si>
+    <t>month 262</t>
+  </si>
+  <si>
+    <t>month 263</t>
+  </si>
+  <si>
+    <t>month 264</t>
+  </si>
+  <si>
+    <t>month 265</t>
+  </si>
+  <si>
+    <t>month 266</t>
+  </si>
+  <si>
+    <t>month 267</t>
+  </si>
+  <si>
+    <t>month 268</t>
+  </si>
+  <si>
+    <t>month 269</t>
+  </si>
+  <si>
+    <t>month 270</t>
+  </si>
+  <si>
+    <t>month 271</t>
+  </si>
+  <si>
+    <t>month 272</t>
+  </si>
+  <si>
+    <t>month 273</t>
+  </si>
+  <si>
+    <t>month 274</t>
+  </si>
+  <si>
+    <t>month 275</t>
+  </si>
+  <si>
+    <t>month 276</t>
+  </si>
+  <si>
+    <t>month 277</t>
+  </si>
+  <si>
+    <t>month 278</t>
+  </si>
+  <si>
+    <t>month 279</t>
+  </si>
+  <si>
+    <t>month 280</t>
+  </si>
+  <si>
+    <t>month 281</t>
+  </si>
+  <si>
+    <t>month 282</t>
+  </si>
+  <si>
+    <t>month 283</t>
+  </si>
+  <si>
+    <t>month 284</t>
+  </si>
+  <si>
+    <t>month 285</t>
+  </si>
+  <si>
+    <t>month 286</t>
+  </si>
+  <si>
+    <t>month 287</t>
+  </si>
+  <si>
+    <t>month 288</t>
+  </si>
+  <si>
+    <t>month 289</t>
+  </si>
+  <si>
+    <t>month 290</t>
+  </si>
+  <si>
+    <t>month 291</t>
+  </si>
+  <si>
+    <t>month 292</t>
+  </si>
+  <si>
+    <t>month 293</t>
+  </si>
+  <si>
+    <t>month 294</t>
+  </si>
+  <si>
+    <t>month 295</t>
+  </si>
+  <si>
+    <t>month 296</t>
+  </si>
+  <si>
+    <t>month 297</t>
+  </si>
+  <si>
+    <t>month 298</t>
+  </si>
+  <si>
+    <t>month 299</t>
+  </si>
+  <si>
+    <t>month 300</t>
+  </si>
+  <si>
+    <t>month 301</t>
+  </si>
+  <si>
+    <t>month 302</t>
+  </si>
+  <si>
+    <t>month 303</t>
+  </si>
+  <si>
+    <t>month 304</t>
+  </si>
+  <si>
+    <t>month 305</t>
+  </si>
+  <si>
+    <t>month 306</t>
+  </si>
+  <si>
+    <t>month 307</t>
+  </si>
+  <si>
+    <t>month 308</t>
+  </si>
+  <si>
+    <t>month 309</t>
+  </si>
+  <si>
+    <t>month 310</t>
+  </si>
+  <si>
+    <t>month 311</t>
+  </si>
+  <si>
+    <t>month 312</t>
+  </si>
+  <si>
+    <t>series 1</t>
+  </si>
+  <si>
+    <t>series 2</t>
+  </si>
+  <si>
+    <t>series 3</t>
+  </si>
+  <si>
+    <t>(enter hourly data here for each month, then run script rearrange_data_daily_bymonth_to_hourly.py to convert to hourly matrices "output_hourly_byyear" for REVUB input)</t>
   </si>
   <si>
     <t>(enter monthly data here [starting in January], then run script rearrange_data_monthly_to_hourly.py to convert to hourly matrices "output_hourly_byyear" for REVUB input)</t>
   </si>
   <si>
     <t>(note: the data in column A may have to be manually extended/shortened depending on the first_year and last_year parameters)</t>
-  </si>
-  <si>
-    <t>(enter hourly data here for each month, then run script rearrange_data_daily_bymonth_to_hourly.py to convert to hourly matrices "output_hourly_byyear" for REVUB input)</t>
   </si>
 </sst>
 </file>
@@ -1654,12 +1972,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1985,1104 +2304,1937 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C021A5-F7BC-4443-80E5-F6F0685F792B}">
-  <dimension ref="A1:I208"/>
+  <dimension ref="A1:I316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1998</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1998</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2014</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2014</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2014</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>608</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>502</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="D106" s="5"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="D113" s="5"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+      <c r="D119" s="5"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="D125" s="5"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+      <c r="D130" s="5"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="D131" s="5"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="D132" s="5"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="D133" s="5"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="D140" s="5"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="D141" s="5"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="D143" s="5"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="D147" s="5"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+      <c r="D148" s="5"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="D149" s="5"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="D150" s="5"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="D152" s="5"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="D153" s="5"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="D157" s="5"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+      <c r="D158" s="5"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+      <c r="D160" s="5"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+      <c r="D168" s="5"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+      <c r="D170" s="5"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="D172" s="5"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="D179" s="5"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="D182" s="5"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="D189" s="5"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="D190" s="5"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="D191" s="5"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="D192" s="5"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="D195" s="5"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+      <c r="D196" s="5"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+      <c r="D200" s="5"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="D202" s="5"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D209" s="5"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D210" s="5"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D211" s="5"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D212" s="5"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D213" s="5"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D214" s="5"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D215" s="5"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D216" s="5"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D217" s="5"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D218" s="5"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D219" s="5"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D220" s="5"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D221" s="5"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D222" s="5"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D223" s="5"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D224" s="5"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D225" s="5"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D226" s="5"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D227" s="5"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D228" s="5"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D229" s="5"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D230" s="5"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D231" s="5"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D232" s="5"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D233" s="5"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D234" s="5"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D235" s="5"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D236" s="5"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D237" s="5"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D238" s="5"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D239" s="5"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D240" s="5"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D241" s="5"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D242" s="5"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D243" s="5"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D244" s="5"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D245" s="5"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D246" s="5"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D247" s="5"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D248" s="5"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D249" s="5"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D250" s="5"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D251" s="5"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D252" s="5"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D253" s="5"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D254" s="5"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D255" s="5"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D256" s="5"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D257" s="5"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D258" s="5"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D259" s="5"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D260" s="5"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D261" s="5"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D262" s="5"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D263" s="5"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D264" s="5"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D265" s="5"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D266" s="5"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D267" s="5"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D268" s="5"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D269" s="5"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D270" s="5"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D271" s="5"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D272" s="5"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D273" s="5"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D274" s="5"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D275" s="5"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D276" s="5"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D277" s="5"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D278" s="5"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D279" s="5"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D280" s="5"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D281" s="5"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D282" s="5"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D283" s="5"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D284" s="5"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D285" s="5"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D286" s="5"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D287" s="5"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D288" s="5"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D289" s="5"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D290" s="5"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D291" s="5"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D292" s="5"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D293" s="5"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D294" s="5"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D295" s="5"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D296" s="5"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D297" s="5"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D298" s="5"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D299" s="5"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D300" s="5"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D301" s="5"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D302" s="5"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D303" s="5"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A304" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D304" s="5"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A305" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D305" s="5"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A306" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D306" s="5"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A307" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D307" s="5"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A308" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D308" s="5"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A309" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D309" s="5"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A310" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D310" s="5"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A311" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D311" s="5"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A312" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D312" s="5"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A313" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D313" s="5"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A314" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D314" s="5"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A315" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D315" s="5"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A316" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D316" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3093,1504 +4245,1500 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF5CBF9-CA84-41E1-BA39-076243C43A9E}">
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1998</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2014</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
